--- a/data/trans_dic/P2A_psíq_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02318769546321202</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0365055269362085</v>
+        <v>0.03650552693620851</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02353175301534589</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01716783911265811</v>
+        <v>0.01852550629947281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005686717631310022</v>
+        <v>0.005748349001703905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007891108021980399</v>
+        <v>0.007568907047882097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02879873720638705</v>
+        <v>0.02933074131338773</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01135016475647761</v>
+        <v>0.01085555877612881</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01616613861992419</v>
+        <v>0.01576501328904609</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01577760322480609</v>
+        <v>0.01564276834768896</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02582785396453032</v>
+        <v>0.02502034218338331</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0163879041969381</v>
+        <v>0.01592077430228369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01248697940642246</v>
+        <v>0.01284355112441936</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01381980541562322</v>
+        <v>0.01374627787108407</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03092913390533623</v>
+        <v>0.03133790183535905</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0506749444526856</v>
+        <v>0.0511076710959012</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01974925341467603</v>
+        <v>0.01881268565227806</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02285370882708411</v>
+        <v>0.02214407797564326</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0714824972669743</v>
+        <v>0.07462361258153774</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02921902751042466</v>
+        <v>0.02956590257563502</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03458670683512469</v>
+        <v>0.03477610106373482</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03429464159731273</v>
+        <v>0.03395896244892262</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0504066431703652</v>
+        <v>0.05008210406044826</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03307369490127478</v>
+        <v>0.03175156611352604</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0236514000249186</v>
+        <v>0.02458665477865124</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02573063941843979</v>
+        <v>0.02543856663399888</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05489017317924929</v>
+        <v>0.05403099775766769</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.007401866927288803</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02386130229725443</v>
+        <v>0.02386130229725442</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.005705649219533965</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001911292396535577</v>
+        <v>0.002002654202144141</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01312475864321653</v>
+        <v>0.0131509831917511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003108306741955774</v>
+        <v>0.003145836243092985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01526364934741877</v>
+        <v>0.01572195986397638</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002630108213810644</v>
+        <v>0.001989871740677939</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01421281856785657</v>
+        <v>0.01393204111274783</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008007814273237893</v>
+        <v>0.008369914448954836</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02568460180370669</v>
+        <v>0.0262569732657527</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0029848857977795</v>
+        <v>0.003212415386651718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01575888026668291</v>
+        <v>0.01513547341329931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007332091279743925</v>
+        <v>0.006916459627612188</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02290654986517129</v>
+        <v>0.02338451638270362</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01109335685251258</v>
+        <v>0.01265133249768378</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03505194397219058</v>
+        <v>0.03399795162453709</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01530614809572491</v>
+        <v>0.01424924784635242</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03614257354408446</v>
+        <v>0.03674127393479254</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01178555165184468</v>
+        <v>0.01154115768783512</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03290139323588724</v>
+        <v>0.03363335567235033</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02407171626596942</v>
+        <v>0.025314723171462</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04645065635020095</v>
+        <v>0.04705147315476947</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.009048168697588873</v>
+        <v>0.009530328625599136</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0289821641754671</v>
+        <v>0.02867487006388711</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01739376109982143</v>
+        <v>0.01686620599151032</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03769387413330699</v>
+        <v>0.03770855187751348</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00163212672408652</v>
+        <v>0.001606359896084237</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01157811631478551</v>
+        <v>0.01049257653102125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003757593845026928</v>
+        <v>0.004553130979953267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01104998486010633</v>
+        <v>0.01095130482063609</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007046902364748119</v>
+        <v>0.006645294911164552</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00691467580236628</v>
+        <v>0.007013402567560776</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003142604205751615</v>
+        <v>0.003762384727673086</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01526565819222652</v>
+        <v>0.01607369824364379</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004819036339960531</v>
+        <v>0.00464870998622045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01062156623445868</v>
+        <v>0.01104637869121764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00497083618643168</v>
+        <v>0.00489877425737859</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01527018500494341</v>
+        <v>0.01553304071599487</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01017036810281474</v>
+        <v>0.009277853942423243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03221817212509746</v>
+        <v>0.03163438369345802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01934873098724002</v>
+        <v>0.02035140032902217</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03021138300040471</v>
+        <v>0.02932118152550435</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02218570449324182</v>
+        <v>0.02243400785023086</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0221901733783694</v>
+        <v>0.02340925152034677</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01893680606063782</v>
+        <v>0.01920480282163089</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03338514700239042</v>
+        <v>0.03400896828458245</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01263481900296976</v>
+        <v>0.01289809359086261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02373186878201081</v>
+        <v>0.02332592642881868</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01574904518547226</v>
+        <v>0.0152932288342222</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02808176349720875</v>
+        <v>0.02867100445256448</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01229193088995325</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02650908963018181</v>
+        <v>0.02650908963018182</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.004047961440152289</v>
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01175020650215126</v>
+        <v>0.01141837876675694</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009278114826432048</v>
+        <v>0.009679917110914727</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01319375527530791</v>
+        <v>0.01347195741876089</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004219691256587485</v>
+        <v>0.004309657020236251</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01897466530026882</v>
+        <v>0.01836733899126379</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001284990143154039</v>
+        <v>0.001286025652187015</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01630106524787649</v>
+        <v>0.01582633406514119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003029365520680384</v>
+        <v>0.003046011026857035</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01549052667869033</v>
+        <v>0.01537639246518761</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01140342994286641</v>
+        <v>0.01136270369781816</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04756434871032907</v>
+        <v>0.04743061733206697</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01212266793530012</v>
+        <v>0.01030493927365702</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02566210233935966</v>
+        <v>0.02502627920962415</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0215158010402988</v>
+        <v>0.01929686025922299</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04644413094714413</v>
+        <v>0.04663639330071331</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0264632907380558</v>
+        <v>0.02417589486933478</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03790030830549691</v>
+        <v>0.03839348059983123</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01078383381293132</v>
+        <v>0.0122510326381598</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03856071999437533</v>
+        <v>0.04034170885305818</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01415167475877023</v>
+        <v>0.01428428744710901</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02710230158264627</v>
+        <v>0.02761268514524672</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01624379166245981</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02983841450327198</v>
+        <v>0.02983841450327199</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01041486646833025</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006088543467397503</v>
+        <v>0.006361570018782976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0138840758932297</v>
+        <v>0.0136913731985214</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006194077460155299</v>
+        <v>0.006126318901813635</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01777615285925864</v>
+        <v>0.01845663972075974</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008251459656360864</v>
+        <v>0.008230050577841357</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01596397371945969</v>
+        <v>0.01625065344068741</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01250958254929339</v>
+        <v>0.01251077428016942</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02491968588000599</v>
+        <v>0.02507599511608667</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008118748863254029</v>
+        <v>0.008087726311186219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01582867778410152</v>
+        <v>0.01605017183811397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01018970609289524</v>
+        <v>0.01035728714649597</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02306145262348986</v>
+        <v>0.02280573697706686</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01310130392851057</v>
+        <v>0.01302267694117768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02457294936577335</v>
+        <v>0.02367994731763136</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01316684612598645</v>
+        <v>0.01305064162970888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02913209037164831</v>
+        <v>0.02915000367879102</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01595416165189555</v>
+        <v>0.01562183068721566</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02642848994969719</v>
+        <v>0.02634963764081565</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02136958798756733</v>
+        <v>0.02158395048549533</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03519965320135715</v>
+        <v>0.03534353079988502</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01334262931506293</v>
+        <v>0.01344622330856254</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02290781338089283</v>
+        <v>0.0229730638502436</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01606391424428473</v>
+        <v>0.01619671089027495</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03039296396569854</v>
+        <v>0.03019845703391423</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10028</v>
+        <v>10822</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5937</v>
+        <v>6001</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8901</v>
+        <v>8538</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14363</v>
+        <v>14628</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10469</v>
+        <v>10012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18105</v>
+        <v>17656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19873</v>
+        <v>19703</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16106</v>
+        <v>15602</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24688</v>
+        <v>23984</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>27020</v>
+        <v>27792</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32996</v>
+        <v>32820</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>34712</v>
+        <v>35171</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29601</v>
+        <v>29854</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20617</v>
+        <v>19639</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25779</v>
+        <v>24978</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35651</v>
+        <v>37218</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26950</v>
+        <v>27270</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38735</v>
+        <v>38947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43196</v>
+        <v>42773</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31433</v>
+        <v>31230</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49825</v>
+        <v>47833</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>51178</v>
+        <v>53202</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>61433</v>
+        <v>60736</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>61604</v>
+        <v>60640</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2060</v>
+        <v>2159</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12824</v>
+        <v>12849</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2825</v>
+        <v>2859</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14655</v>
+        <v>15095</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2781</v>
+        <v>2104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15553</v>
+        <v>15245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8060</v>
+        <v>8424</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>28660</v>
+        <v>29299</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6374</v>
+        <v>6860</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>32642</v>
+        <v>31351</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>14043</v>
+        <v>13247</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>47554</v>
+        <v>48546</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11957</v>
+        <v>13637</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34248</v>
+        <v>33218</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13911</v>
+        <v>12950</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>34702</v>
+        <v>35277</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12464</v>
+        <v>12205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36003</v>
+        <v>36804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24228</v>
+        <v>25479</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>51832</v>
+        <v>52502</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19322</v>
+        <v>20351</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>60032</v>
+        <v>59395</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33314</v>
+        <v>32304</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>78252</v>
+        <v>78282</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1831</v>
+        <v>1802</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10248</v>
+        <v>9287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3095</v>
+        <v>3751</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11564</v>
+        <v>11460</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7004</v>
+        <v>6605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6056</v>
+        <v>6142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2423</v>
+        <v>2901</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15993</v>
+        <v>16839</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10195</v>
+        <v>9835</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>18704</v>
+        <v>19452</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7928</v>
+        <v>7813</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31978</v>
+        <v>32528</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11407</v>
+        <v>10406</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28517</v>
+        <v>28000</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15939</v>
+        <v>16765</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31616</v>
+        <v>30684</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22051</v>
+        <v>22298</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19434</v>
+        <v>20502</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14601</v>
+        <v>14808</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34976</v>
+        <v>35629</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>26729</v>
+        <v>27286</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>41790</v>
+        <v>41075</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25117</v>
+        <v>24390</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>58807</v>
+        <v>60041</v>
       </c>
     </row>
     <row r="16">
@@ -2143,37 +2143,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5911</v>
+        <v>5744</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9055</v>
+        <v>9447</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5973</v>
+        <v>6099</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2066</v>
+        <v>2110</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17273</v>
+        <v>16721</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15580</v>
+        <v>15126</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3018</v>
+        <v>3035</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>29219</v>
+        <v>29004</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5100</v>
+        <v>5081</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23926</v>
+        <v>23859</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6143</v>
+        <v>5222</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25044</v>
+        <v>24424</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7340</v>
+        <v>6583</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21027</v>
+        <v>21114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12959</v>
+        <v>11839</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34502</v>
+        <v>34951</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8502</v>
+        <v>9658</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>36855</v>
+        <v>38557</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14101</v>
+        <v>14233</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>51122</v>
+        <v>52085</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19671</v>
+        <v>20553</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>47333</v>
+        <v>46676</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20857</v>
+        <v>20629</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61884</v>
+        <v>64253</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27353</v>
+        <v>27282</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>56556</v>
+        <v>57572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44119</v>
+        <v>44123</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>92138</v>
+        <v>92716</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>53144</v>
+        <v>52941</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>110039</v>
+        <v>111579</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>70249</v>
+        <v>71404</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>165551</v>
+        <v>163716</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>42328</v>
+        <v>42074</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>83773</v>
+        <v>80728</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44336</v>
+        <v>43945</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>101417</v>
+        <v>101479</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>52888</v>
+        <v>51786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>93629</v>
+        <v>93349</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>75366</v>
+        <v>76122</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>130148</v>
+        <v>130680</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>87338</v>
+        <v>88016</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>159252</v>
+        <v>159706</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>110746</v>
+        <v>111661</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>218182</v>
+        <v>216786</v>
       </c>
     </row>
     <row r="24">
